--- a/final-framework-testng/target/classes/MultipleUsersRegistration.xlsx
+++ b/final-framework-testng/target/classes/MultipleUsersRegistration.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C80BB3-C826-4802-A189-A9E86E825166}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E48CA24-B6FD-4365-B313-4EAD5A1410A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="5300" windowHeight="3240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -115,28 +116,16 @@
     <t>Telangana</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user1@gmail.com</t>
-  </si>
-  <si>
-    <t>user2@gmail.com</t>
-  </si>
-  <si>
-    <t>user3@gmail.com</t>
-  </si>
-  <si>
-    <t>user4@gmail.com</t>
+    <t>leena@gmail.com</t>
+  </si>
+  <si>
+    <t>meera@gmail.com</t>
+  </si>
+  <si>
+    <t>pooja@gmail.com</t>
+  </si>
+  <si>
+    <t>rohini@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -484,7 +473,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,13 +530,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>9947476565</v>
@@ -579,13 +568,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>9876546789</v>
@@ -617,13 +606,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>7765432154</v>
@@ -655,13 +644,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>9876509866</v>
@@ -693,10 +682,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{52389147-9C43-4982-89B4-A3E3D0362CBE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{13013A51-BC3A-4912-9CC0-2A0677542827}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3ABF8BAE-4BE8-4B30-A57A-E0BDED751F81}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{EEE0B3CB-8790-4877-ABDA-8E00767AD019}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F623F52C-4FAD-4ACE-AD27-C2BEA2B044E3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9705F83C-1DC6-45F2-B8EC-A0B7E3F2467B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{83A1162E-55BA-4805-BE47-888B5B938DA3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EA271CC6-17B0-4A73-BE9C-5B1E13E49726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
